--- a/code_testing/table_comparisons/data_sources.xlsx
+++ b/code_testing/table_comparisons/data_sources.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="67">
   <si>
     <t>BIOMASS_STRATUM</t>
   </si>
@@ -208,6 +208,24 @@
   </si>
   <si>
     <t>VARPOP</t>
+  </si>
+  <si>
+    <t>COUNT_HAUL</t>
+  </si>
+  <si>
+    <t>COUNT_CATCH</t>
+  </si>
+  <si>
+    <t>COUNT_NUMBER</t>
+  </si>
+  <si>
+    <t>HAULCOUNT</t>
+  </si>
+  <si>
+    <t>CATCOUNT</t>
+  </si>
+  <si>
+    <t>NUMCOUNT</t>
   </si>
 </sst>
 </file>
@@ -930,10 +948,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1110,6 +1128,30 @@
         <v>15</v>
       </c>
     </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" t="s">
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
